--- a/MainTop/26.11.2024/таня_озон/печать.xlsx
+++ b/MainTop/26.11.2024/таня_озон/печать.xlsx
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O129" activeCellId="0" sqref="O129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J113" activeCellId="0" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4208,7 +4208,7 @@
         <v>118</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/26.11.2024/таня_озон/печать.xlsx
+++ b/MainTop/26.11.2024/таня_озон/печать.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">сумма</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис</t>
@@ -503,12 +503,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -545,8 +557,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,6 +579,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -570,13 +650,17 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J113" activeCellId="0" sqref="J113"/>
+      <selection pane="topLeft" activeCell="J114" activeCellId="0" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,10 +685,10 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -630,13 +714,13 @@
       <c r="G2" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -662,13 +746,13 @@
       <c r="G3" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -694,13 +778,13 @@
       <c r="G4" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -726,13 +810,13 @@
       <c r="G5" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -758,13 +842,13 @@
       <c r="G6" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="2" t="n">
         <f aca="false">H6/2</f>
         <v>12</v>
       </c>
@@ -791,13 +875,13 @@
       <c r="G7" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="2" t="n">
         <f aca="false">H7/2</f>
         <v>12</v>
       </c>
@@ -824,13 +908,13 @@
       <c r="G8" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -856,13 +940,13 @@
       <c r="G9" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -888,13 +972,13 @@
       <c r="G10" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -920,13 +1004,13 @@
       <c r="G11" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -952,13 +1036,13 @@
       <c r="G12" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -984,13 +1068,13 @@
       <c r="G13" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1016,13 +1100,13 @@
       <c r="G14" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">H14/2</f>
         <v>6</v>
       </c>
@@ -1049,13 +1133,13 @@
       <c r="G15" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1081,13 +1165,13 @@
       <c r="G16" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1113,13 +1197,13 @@
       <c r="G17" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1145,13 +1229,13 @@
       <c r="G18" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="2" t="n">
         <f aca="false">H18/2</f>
         <v>6</v>
       </c>
@@ -1178,13 +1262,13 @@
       <c r="G19" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,13 +1294,13 @@
       <c r="G20" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1242,13 +1326,13 @@
       <c r="G21" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1274,13 +1358,13 @@
       <c r="G22" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1306,13 +1390,13 @@
       <c r="G23" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1338,13 +1422,13 @@
       <c r="G24" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1370,13 +1454,13 @@
       <c r="G25" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1402,13 +1486,13 @@
       <c r="G26" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1434,13 +1518,13 @@
       <c r="G27" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1466,13 +1550,13 @@
       <c r="G28" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1498,13 +1582,13 @@
       <c r="G29" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1530,13 +1614,13 @@
       <c r="G30" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1562,13 +1646,13 @@
       <c r="G31" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1594,13 +1678,13 @@
       <c r="G32" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1626,13 +1710,13 @@
       <c r="G33" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1658,13 +1742,13 @@
       <c r="G34" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1690,13 +1774,13 @@
       <c r="G35" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1722,13 +1806,13 @@
       <c r="G36" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1754,13 +1838,13 @@
       <c r="G37" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1786,13 +1870,13 @@
       <c r="G38" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1818,13 +1902,13 @@
       <c r="G39" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1850,13 +1934,13 @@
       <c r="G40" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1882,13 +1966,13 @@
       <c r="G41" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="2" t="n">
         <f aca="false">H41/2</f>
         <v>2</v>
       </c>
@@ -1915,13 +1999,13 @@
       <c r="G42" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1947,13 +2031,13 @@
       <c r="G43" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="2" t="n">
         <f aca="false">H43/2</f>
         <v>2</v>
       </c>
@@ -1980,13 +2064,13 @@
       <c r="G44" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="2" t="n">
         <f aca="false">H44/2</f>
         <v>2</v>
       </c>
@@ -2013,13 +2097,13 @@
       <c r="G45" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="2" t="n">
         <f aca="false">H45/2</f>
         <v>2</v>
       </c>
@@ -2046,13 +2130,13 @@
       <c r="G46" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="2" t="n">
         <f aca="false">H46/2</f>
         <v>2</v>
       </c>
@@ -2079,13 +2163,13 @@
       <c r="G47" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="2" t="n">
         <f aca="false">H47/2</f>
         <v>2</v>
       </c>
@@ -2112,13 +2196,13 @@
       <c r="G48" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2144,13 +2228,13 @@
       <c r="G49" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2176,13 +2260,13 @@
       <c r="G50" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="2" t="n">
         <f aca="false">H50/2</f>
         <v>2</v>
       </c>
@@ -2209,13 +2293,13 @@
       <c r="G51" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="2" t="n">
         <f aca="false">H51/2</f>
         <v>2</v>
       </c>
@@ -2242,13 +2326,13 @@
       <c r="G52" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="2" t="n">
         <f aca="false">H52/2</f>
         <v>2</v>
       </c>
@@ -2275,13 +2359,13 @@
       <c r="G53" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="2" t="n">
         <f aca="false">H53/2</f>
         <v>2</v>
       </c>
@@ -2308,13 +2392,13 @@
       <c r="G54" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="2" t="n">
         <f aca="false">H54/2</f>
         <v>2</v>
       </c>
@@ -2341,13 +2425,13 @@
       <c r="G55" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="2" t="n">
         <f aca="false">H55/2</f>
         <v>2</v>
       </c>
@@ -2374,13 +2458,13 @@
       <c r="G56" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="2" t="n">
         <f aca="false">H56/2</f>
         <v>2</v>
       </c>
@@ -2407,13 +2491,13 @@
       <c r="G57" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2439,13 +2523,13 @@
       <c r="G58" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="2" t="n">
         <f aca="false">H58/2</f>
         <v>2</v>
       </c>
@@ -2472,13 +2556,13 @@
       <c r="G59" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="2" t="n">
         <f aca="false">H59/2</f>
         <v>2</v>
       </c>
@@ -2505,13 +2589,13 @@
       <c r="G60" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2537,13 +2621,13 @@
       <c r="G61" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2569,13 +2653,13 @@
       <c r="G62" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2601,13 +2685,13 @@
       <c r="G63" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2633,13 +2717,13 @@
       <c r="G64" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2665,13 +2749,13 @@
       <c r="G65" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2697,13 +2781,13 @@
       <c r="G66" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2729,13 +2813,13 @@
       <c r="G67" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2761,13 +2845,13 @@
       <c r="G68" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2793,13 +2877,13 @@
       <c r="G69" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2825,13 +2909,13 @@
       <c r="G70" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2857,13 +2941,13 @@
       <c r="G71" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="J71" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2889,13 +2973,13 @@
       <c r="G72" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J72" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2921,13 +3005,13 @@
       <c r="G73" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="J73" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2953,13 +3037,13 @@
       <c r="G74" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2985,13 +3069,13 @@
       <c r="G75" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3017,13 +3101,13 @@
       <c r="G76" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="J76" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3049,13 +3133,13 @@
       <c r="G77" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="J77" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3081,13 +3165,13 @@
       <c r="G78" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="J78" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3113,13 +3197,13 @@
       <c r="G79" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="J79" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3145,13 +3229,13 @@
       <c r="G80" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="J80" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3177,13 +3261,13 @@
       <c r="G81" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3209,13 +3293,13 @@
       <c r="G82" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="J82" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3241,13 +3325,13 @@
       <c r="G83" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3273,13 +3357,13 @@
       <c r="G84" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3305,13 +3389,13 @@
       <c r="G85" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J85" s="0" t="n">
+      <c r="J85" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3337,13 +3421,13 @@
       <c r="G86" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="J86" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3369,13 +3453,13 @@
       <c r="G87" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="0" t="n">
+      <c r="J87" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3401,13 +3485,13 @@
       <c r="G88" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J88" s="0" t="n">
+      <c r="J88" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3433,13 +3517,13 @@
       <c r="G89" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="J89" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3465,13 +3549,13 @@
       <c r="G90" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J90" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3497,13 +3581,13 @@
       <c r="G91" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3529,13 +3613,13 @@
       <c r="G92" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="J92" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3561,13 +3645,13 @@
       <c r="G93" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J93" s="0" t="n">
+      <c r="J93" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3593,13 +3677,13 @@
       <c r="G94" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="J94" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3625,13 +3709,13 @@
       <c r="G95" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J95" s="0" t="n">
+      <c r="J95" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3657,13 +3741,13 @@
       <c r="G96" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J96" s="0" t="n">
+      <c r="J96" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3689,13 +3773,13 @@
       <c r="G97" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="J97" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3721,13 +3805,13 @@
       <c r="G98" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J98" s="0" t="n">
+      <c r="J98" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3753,13 +3837,13 @@
       <c r="G99" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="J99" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3785,13 +3869,13 @@
       <c r="G100" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J100" s="0" t="n">
+      <c r="J100" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3817,13 +3901,13 @@
       <c r="G101" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3849,13 +3933,13 @@
       <c r="G102" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="J102" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3881,13 +3965,13 @@
       <c r="G103" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J103" s="0" t="n">
+      <c r="J103" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3913,13 +3997,13 @@
       <c r="G104" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="J104" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3945,13 +4029,13 @@
       <c r="G105" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="J105" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3977,13 +4061,13 @@
       <c r="G106" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="J106" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4009,13 +4093,13 @@
       <c r="G107" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J107" s="0" t="n">
+      <c r="J107" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4041,13 +4125,13 @@
       <c r="G108" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J108" s="0" t="n">
+      <c r="J108" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4073,14 +4157,14 @@
       <c r="G109" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="1" t="n">
         <v>40</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J109" s="0" t="n">
-        <v>16</v>
+      <c r="J109" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,14 +4189,14 @@
       <c r="G110" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J110" s="0" t="n">
-        <v>16</v>
+      <c r="J110" s="2" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,14 +4221,14 @@
       <c r="G111" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J111" s="0" t="n">
-        <v>16</v>
+      <c r="J111" s="2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,13 +4253,13 @@
       <c r="G112" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="1" t="n">
         <v>16</v>
       </c>
       <c r="I112" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4201,13 +4285,13 @@
       <c r="G113" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="1" t="n">
         <v>16</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J113" s="0" t="n">
+      <c r="J113" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4233,13 +4317,13 @@
       <c r="G114" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J114" s="0" t="n">
+      <c r="J114" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4265,13 +4349,13 @@
       <c r="G115" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J115" s="0" t="n">
+      <c r="J115" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4297,13 +4381,13 @@
       <c r="G116" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J116" s="0" t="n">
+      <c r="J116" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4329,13 +4413,13 @@
       <c r="G117" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J117" s="0" t="n">
+      <c r="J117" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4361,13 +4445,13 @@
       <c r="G118" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I118" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J118" s="0" t="n">
+      <c r="J118" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4393,13 +4477,13 @@
       <c r="G119" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J119" s="0" t="n">
+      <c r="J119" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4425,13 +4509,13 @@
       <c r="G120" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I120" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="J120" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4457,13 +4541,13 @@
       <c r="G121" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J121" s="0" t="n">
+      <c r="J121" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4489,13 +4573,13 @@
       <c r="G122" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="0" t="n">
+      <c r="J122" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4521,13 +4605,13 @@
       <c r="G123" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J123" s="0" t="n">
+      <c r="J123" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4553,13 +4637,13 @@
       <c r="G124" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J124" s="0" t="n">
+      <c r="J124" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4585,13 +4669,13 @@
       <c r="G125" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J125" s="0" t="n">
+      <c r="J125" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4617,13 +4701,13 @@
       <c r="G126" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J126" s="0" t="n">
+      <c r="J126" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4649,13 +4733,13 @@
       <c r="G127" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I127" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J127" s="0" t="n">
+      <c r="J127" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4681,13 +4765,13 @@
       <c r="G128" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I128" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J128" s="0" t="n">
+      <c r="J128" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4713,13 +4797,13 @@
       <c r="G129" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I129" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J129" s="0" t="n">
+      <c r="J129" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4745,13 +4829,13 @@
       <c r="G130" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J130" s="0" t="n">
+      <c r="J130" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4777,13 +4861,13 @@
       <c r="G131" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I131" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J131" s="0" t="n">
+      <c r="J131" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4809,13 +4893,13 @@
       <c r="G132" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I132" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J132" s="0" t="n">
+      <c r="J132" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4841,13 +4925,13 @@
       <c r="G133" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I133" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J133" s="0" t="n">
+      <c r="J133" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4873,13 +4957,13 @@
       <c r="G134" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I134" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J134" s="0" t="n">
+      <c r="J134" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4905,13 +4989,13 @@
       <c r="G135" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I135" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J135" s="0" t="n">
+      <c r="J135" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4937,13 +5021,13 @@
       <c r="G136" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I136" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J136" s="0" t="n">
+      <c r="J136" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4969,13 +5053,13 @@
       <c r="G137" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J137" s="0" t="n">
+      <c r="J137" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5001,13 +5085,13 @@
       <c r="G138" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I138" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J138" s="0" t="n">
+      <c r="J138" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5033,13 +5117,13 @@
       <c r="G139" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I139" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J139" s="0" t="n">
+      <c r="J139" s="2" t="n">
         <v>4</v>
       </c>
     </row>
